--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/artfynd/A 25363-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/artfynd/A 25363-2020.xlsx", "A 25363-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/kartor/A 25363-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/kartor/A 25363-2020.png", "A 25363-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/klagomål/A 25363-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/klagomål/A 25363-2020.docx", "A 25363-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/klagomålsmail/A 25363-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/klagomålsmail/A 25363-2020.docx", "A 25363-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/tillsyn/A 25363-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/tillsyn/A 25363-2020.docx", "A 25363-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/tillsynsmail/A 25363-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/tillsynsmail/A 25363-2020.docx", "A 25363-2020")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -710,27 +710,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/artfynd/A 57811-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/artfynd/A 57811-2022.xlsx", "A 57811-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/kartor/A 57811-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/kartor/A 57811-2022.png", "A 57811-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/klagomål/A 57811-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/klagomål/A 57811-2022.docx", "A 57811-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/klagomålsmail/A 57811-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/klagomålsmail/A 57811-2022.docx", "A 57811-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/tillsyn/A 57811-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/tillsyn/A 57811-2022.docx", "A 57811-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/tillsynsmail/A 57811-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRELLEBORG/tillsynsmail/A 57811-2022.docx", "A 57811-2022")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43980</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>44258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44516</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44516</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
